--- a/medicine/Psychotrope/Van_Houtte_(entreprise)/Van_Houtte_(entreprise).xlsx
+++ b/medicine/Psychotrope/Van_Houtte_(entreprise)/Van_Houtte_(entreprise).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Van Houtte est une entreprise de chaîne de cafés et de produits du café, basée à Montréal. Elle a été fondée par Albert-Louis Van Houtte en 1919. Sylvain Toutant est son président. Le 7 mai 2007, l'entreprise est achetée par l'américaine Littlejohn &amp; Co. Le 14 septembre 2010, la compagnie Green Mountain Coffee Roasters rachète l'entreprise au coût de 915 millions de dollars[1].
-En 2014, la portion café-bistro de l'entreprise a été acquise par Groupe d’alimentation MTY[2]. Les cafés-bistros se retrouvent surtout au Québec. La Station centrale d'Ottawa en héberge une succursale.
+Van Houtte est une entreprise de chaîne de cafés et de produits du café, basée à Montréal. Elle a été fondée par Albert-Louis Van Houtte en 1919. Sylvain Toutant est son président. Le 7 mai 2007, l'entreprise est achetée par l'américaine Littlejohn &amp; Co. Le 14 septembre 2010, la compagnie Green Mountain Coffee Roasters rachète l'entreprise au coût de 915 millions de dollars.
+En 2014, la portion café-bistro de l'entreprise a été acquise par Groupe d’alimentation MTY. Les cafés-bistros se retrouvent surtout au Québec. La Station centrale d'Ottawa en héberge une succursale.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Café Van Houtte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Café Van Houtte offre ses services en Estrie et en Montérégie avec plus de 35 succursales[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Café Van Houtte offre ses services en Estrie et en Montérégie avec plus de 35 succursales.
 </t>
         </is>
       </c>
